--- a/JK_SootExperiment_DataSheet.xlsx
+++ b/JK_SootExperiment_DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klt8\Documents\Soot-Experiment-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D400A-55C9-4698-98DE-BA3AB4D84643}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906378FE-B059-4087-82EE-75A100A2A62C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7DE2EABB-1D5E-4192-BD56-47EDC28EADCC}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G33"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
